--- a/Парфюмерия.xlsx
+++ b/Парфюмерия.xlsx
@@ -1198,11 +1198,11 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A17:H17"/>
     <mergeCell ref="C9"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A4:H4"/>
     <mergeCell ref="B8"/>
-    <mergeCell ref="A4:H4"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A19:H19"/>
@@ -4814,13 +4814,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR7"/>
+  <dimension ref="A1:AR16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:AT6"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -5252,39 +5252,36 @@
       <c r="A4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Red Label CROSS INSAIDER Туалетная вода 100 мл</t>
+          <t>Масляные духи La Parfum Galleria Lost Cherry</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">271  </t>
+          <t xml:space="preserve">264  </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 446 </t>
+          <t xml:space="preserve">665 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>724581115</t>
+          <t>303903410</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Туалетная вода</t>
+          <t>Духи-масло</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -5292,27 +5289,27 @@
       </c>
       <c r="N4" s="6" t="inlineStr">
         <is>
-          <t>https://yadi.sk/i/eJftIjnbqP_JLQ</t>
+          <t>https://yadi.sk/i/BY8IzORzN_0pvQ</t>
         </is>
       </c>
       <c r="O4" s="6" t="inlineStr">
         <is>
-          <t>https://yadi.sk/i/eJftIjnbqP_JLQ;https://yadi.sk/d/q84cZTBS6a15IQ;https://yadi.sk/d/3_mGmscL6Be4vw</t>
+          <t>https://yadi.sk/i/cHsLFPdlOCNiDQ;https://yadi.sk/i/pwFEjQFdVXAr7A;https://yadi.sk/i/UdxEfXA_zCqW4Q;https://yadi.sk/i/cA6x4yMXIMBpbw;https://yadi.sk/i/LgHYTIyv2dr7lg</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Red Label</t>
+          <t>La Parfum Galleria</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Туалетная вода</t>
+          <t>Духи-масло</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>3</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -5325,45 +5322,354 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Создателям аромата удалось передать энергетику смелости, сексуальности и очарования. Водный древесный парфюм освежает и согревает одновременно, представляя собой потрясающий контраст красоты и чувственности. Испанский модный дом дарит мужчинам невероятный шарм и силу. Парфюмерная композиция сверкает энергетикой силы, отваги, мужественности и активности. Аромат CROSS INSAIDER придется по вкусу спортсменам или молодым людям, живущим в ритме большого города, энергичным и активным мужчинам, которые никогда не останавливаются на достигнутом, не знают горечи поражений и вызывают особое уважение у женщин. Обладатели этого восторженного интенсивного букета получают эмоциональный и пикантный аромат, который переливается гранями чувственности, сексуальности, мужественности и силы.
-Группа ароматов: водяные , древесные
-Верхние ноты: грейпфрут , мандарин , морские ноты
-Ноты сердца: жасмин , лавр
-Базовые ноты: дубовый мох , пачули , серая амбра , гваяк
-Вся парфюмерия Delta parfum изготавливается на основе оригинальных Немецких (Drom Fragrances) композиций с соблюдением всех необходимых производственных процессов и норм качества, исключительно в заводских условиях, имеет необходимые сертификаты качества. Строгое соблюдение технологий на наших заводах с многолетней историей успешного развития- гарантирует высочайшее качество изготовления парфюмерии, а применение исключительно оригинальных Европейских ароматических композиций- позволит Вам ощутить уже известные, знакомые ароматы, но по значительно более низкой цене.</t>
+          <t>Смелый насыщенный соблазнительный аромат посвящен густому кисло-сладкому запаху душистой наливной вишни, который дарит счастливое, радостное и солнечное летнее настроение.Аромат открывается вкусными фруктовыми оттенками спелой душистой вишни и сладкого вишневого ликера в сочетание с теплым ореховым нюансом горького миндаля. Кисло-сладкий насыщенный аккорд «звезды» парфюмерной композиции — вишни в обрамлении изящных цветочных оттенков алой бархатисто-пряной медовой розы и изысканного страстного белого жасмина наполняют средние ноты композиции, сплетаясь в восточном насыщенном шлейфе композиции Lost Cherry с дымными горьковато-сладкими аккордами бобов тонка, пряно-древесными акцентами перуанского бальзама и элегантными древесными оттенками ветивера, сандала и белого кедра.</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>Red Label;Древесный; Акватический;Denaturated ethyl alcohol;Aqua;Fragrances;Туалетная вода</t>
+          <t>La Parfum Galleria;Цветочный; Восточный;парфюмерное масло;Духи-масло</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>Древесный, Акватический</t>
+          <t>Цветочный, Восточный</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Россия, Франция</t>
+          <t>ОАЭ</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>Denaturated ethyl alcohol;Aqua;Fragrances</t>
-        </is>
-      </c>
-    </row>
-    <row r="5"/>
+          <t>парфюмерное масло</t>
+        </is>
+      </c>
+    </row>
     <row r="7" ht="115.2" customHeight="1" s="13">
       <c r="N7" s="6" t="n"/>
       <c r="O7" s="6" t="n"/>
       <c r="AL7" s="7" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Масляные духи La Parfum Galleria Lost Cherry</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">264  </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">665 </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>303903410</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Духи-масло</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>https://yadi.sk/i/BY8IzORzN_0pvQ</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>https://yadi.sk/i/cHsLFPdlOCNiDQ;https://yadi.sk/i/pwFEjQFdVXAr7A;https://yadi.sk/i/UdxEfXA_zCqW4Q;https://yadi.sk/i/cA6x4yMXIMBpbw;https://yadi.sk/i/LgHYTIyv2dr7lg</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>La Parfum Galleria</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Духи-масло</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Взрослая</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>Смелый насыщенный соблазнительный аромат посвящен густому кисло-сладкому запаху душистой наливной вишни, который дарит счастливое, радостное и солнечное летнее настроение.Аромат открывается вкусными фруктовыми оттенками спелой душистой вишни и сладкого вишневого ликера в сочетание с теплым ореховым нюансом горького миндаля. Ки</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>La Parfum Galleria;Цветочный; Восточный;парфюмерное масло;Духи-масло</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>Цветочный, Восточный</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>ОАЭ</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>парфюмерное масло</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Духи женские PARFUMS CONSTANTINE 7 MADEMOISELLE Парфюм, Парфюмерная вода 50 мл</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">608  </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 290 </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>267911248</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Парфюмерная вода</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>https://yadi.sk/i/3lntc__X6FfyTQ</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>https://yadi.sk/i/38Zxu1JdBcHkcA;https://yadi.sk/i/MowBjLlCTLTaEg</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>PARFUMS CONSTANTINE</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Парфюмерная вода</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Взрослая</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>СЕМЕЙСТВО: Восточные.
+ПИРАМИДА АРОМАТА:
+НАЧАЛЬНЫЕ НОТЫ: миндаль и кофе;
+НОТЫ СЕРДЦА: жасмин, самбак, тубероза, ирис;
+НОТЫ ШЛЕЙФА: бобы тонка, какао, сандал, ваниль.
+.
+Аромат противопоставляет внутри себя необычные и редкие ингредиенты. Одновременно свежий и легкий, капризный и насыщенный. Представляем вам коллекцию женской парфюмерии известного бренда Parfums Constantine, который уже много лет создает неповторимые ароматы для женщин. Коллекции бренда представляют широкий выбор ароматов: от сладких цветочных, фруктовых до восточных композиций. Парфюмерная и туалетная вода бренда отличаются высокой стойкостью и отменным качеством. Она прекрасно подходит как для повседневного использования, так и для особых случаев женщинам всех возрастов. Мы не продаем твердые и роликовые духи. Мы не предлагаем миниатюры. Мы предлагаем полноразмерные флаконы объемом 50 мл, выгодные по сравнению с тестерами и пробниками. Компоненты композиций (отдушки) произведены во французских парфюмерных лабораториях. В наших отдушках содержатся элитные масла (масляные духи), но нет феромонов, они не имеют ничего общего с турецкими ароматами, с распивом или отливантами (отливант, распив). Наша парфюмерная вода (женский парфюм) с французскими отдушками, как и натуральная нишевая, имеет уникальную формулу композиций. Ароматы коллекций бренда отличаются прекрасным шлейфом и тонкими нежными оттенками. Наши шлейфовые духи идеально подходят для осеннего, зимнего, весеннего и летнего сезонов, чтобы каждый день женщина имела возможность чувствовать себя императрицей.</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>PARFUMS CONSTANTINE;;Спирт этиловый денатурированный (80% об.);парфюмерная композиция;вода;Альфа-изометил ионон;Бензилбензоат;Бензилсалицилат;Цитраль;Цитронеллол;Кумарин;Гераниол;Гидроксицитронеллаль;Изоэвгенол;Линалоол;Лимонен;CI 16255;CI 28440.;Парфюмерная вода</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>Спирт этиловый денатурированный (80% об.);парфюмерная композиция;вода;Альфа-изометил ионон;Бензилбензоат;Бензилсалицилат;Цитраль;Цитронеллол;Кумарин;Гераниол;Гидроксицитронеллаль;Изоэвгенол;Линалоол;Лимонен;CI 16255;CI 28440.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Духи женские PARFUMS CONSTANTINE 7 MADEMOISELLE Парфюм, Парфюмерная вода 50 мл</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">608  </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 290 </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>267911248</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Парфюмерная вода</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>https://yadi.sk/i/3lntc__X6FfyTQ</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>https://yadi.sk/i/38Zxu1JdBcHkcA;https://yadi.sk/i/MowBjLlCTLTaEg</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>PARFUMS CONSTANTINE</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Парфюмерная вода</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Взрослая</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>СЕМЕЙСТВО: Восточные.
+ПИРАМИДА АРОМАТА:
+НАЧАЛЬНЫЕ НОТЫ: миндаль и кофе;
+НОТЫ СЕРДЦА: жасмин, самбак, тубероза, ирис;
+НОТЫ ШЛЕЙФА: бобы тонка, какао, сандал, ваниль.
+.
+Аромат противопоставляет внутри себя необычные и редкие ингредиенты. Одновременно свежий и легкий, капризный и насыщенный. Представляем вам коллекцию женской парфюмерии известного бренда Parfums Constantine, который уже много лет создает неповторимые ароматы для женщин. Коллекции бренда представляют широкий выбор ароматов: от сладких цветочных, фруктовых до восточных композиций. Парфюмерная и туалетная вода бренда отличаются высокой стойкостью и отменным качеством. Она прекрасно подходит как для повседневного использования, так и для особых случаев женщинам всех возрастов. Мы не продаем твердые и роликовые духи. Мы не предлагаем миниатюры. Мы предлагаем полноразмерные флаконы объемом 50 мл, выгодные по сравнению с тестерами и пробниками. Компоненты композиций (отдушки) произведены во французских парфюмерных лабораториях. В наших отдушках содержатся элитные масла (масляные духи), но нет феромонов, они не имеют ничего общего с турецкими ароматами, с распивом или отливантами (отливант, распив). Наша парфюмерная вода (женский парфюм) с французскими отдушками, как и натуральная нишевая, имеет уникальную формулу композиций. Ароматы коллекций бренда отличаются прекрасным шлейфом и тонкими нежными оттенками. Наши шлейфовые духи идеально подходят для осеннего, зимнего, весеннего и летнего сезонов, чтобы каждый день женщина имела возможность чувствовать себя императрицей.</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>PARFUMS CONSTANTINE;;Спирт этиловый денатурированный (80% об.);парфюмерная композиция;вода;Альфа-изометил ионон;Бензилбензоат;Бензилсалицилат;Цитраль;Цитронеллол;Кумарин;Гераниол;Гидроксицитронеллаль;Изоэвгенол;Линалоол;Лимонен;CI 16255;CI 28440.;Парфюмерная вода</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>Спирт этиловый денатурированный (80% об.);парфюмерная композиция;вода;Альфа-изометил ионон;Бензилбензоат;Бензилсалицилат;Цитраль;Цитронеллол;Кумарин;Гераниол;Гидроксицитронеллаль;Изоэвгенол;Линалоол;Лимонен;CI 16255;CI 28440.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5434,6 +5740,10 @@
     </dataValidation>
     <dataValidation sqref="AP4:AP500002" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="Ошибка" error="Неверный формат данных" type="whole"/>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N4" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
